--- a/MirrorMe/MirrorMe.xlsx
+++ b/MirrorMe/MirrorMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="#TTexts" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>TText</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>ttTopLevel</t>
+  </si>
+  <si>
+    <t>[Assignment]</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>asgmt_01</t>
+  </si>
+  <si>
+    <t>asgmt_02</t>
+  </si>
+  <si>
+    <t>asgmt_03</t>
+  </si>
+  <si>
+    <t>ttTrace</t>
+  </si>
+  <si>
+    <t>ttTrace~</t>
+  </si>
+  <si>
+    <t>asmVal</t>
+  </si>
+  <si>
+    <t>asmVar</t>
   </si>
 </sst>
 </file>
@@ -177,8 +204,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -191,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -303,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,21 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="5" width="16.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.21875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="5" width="16.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -510,8 +537,11 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -551,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -568,7 +598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -585,7 +615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -602,7 +632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -621,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -635,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -647,6 +677,76 @@
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +760,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,7 +772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
